--- a/数据整理/stocks/A股/深证主板/002984-森麒麟.xlsx
+++ b/数据整理/stocks/A股/深证主板/002984-森麒麟.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001070</t>
+          <t>001396</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>建信信息产业股票</t>
+          <t>建信互联网+产业升级股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.13</t>
+          <t>5.32</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2197</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001396</t>
+          <t>008962</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>建信互联网+产业升级股票</t>
+          <t>建信科技创新混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.88</t>
+          <t>5.32</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1819</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000308</t>
+          <t>001070</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>建信创新中国混合</t>
+          <t>建信信息产业股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.48</t>
+          <t>5.11</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1661</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002281</t>
+          <t>000308</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>建信裕利灵活配置混合</t>
+          <t>建信创新中国混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.13</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008962</t>
+          <t>002281</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>建信科技创新混合A</t>
+          <t>建信裕利灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -642,15 +702,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>93.77</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>3.42</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>5</v>
       </c>
     </row>
@@ -665,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +756,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -716,15 +796,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>89.71</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.98</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2840</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -734,26 +824,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004209</t>
+          <t>008962</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大成智惠量化多策略灵活配置混合</t>
+          <t>建信科技创新混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>89.48</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2323</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -762,26 +862,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000308</t>
+          <t>000534</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>建信创新中国混合</t>
+          <t>长盛高端装备制造灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>85.84</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0916</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -790,26 +900,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000534</t>
+          <t>000308</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>长盛高端装备制造灵活配置混合</t>
+          <t>建信创新中国混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>88.43</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -828,15 +948,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>89.07</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2.65</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>8</v>
       </c>
     </row>
@@ -846,25 +976,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>008962</t>
+          <t>008963</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>建信科技创新混合A</t>
+          <t>建信科技创新混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>92.33</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>5.94</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>3</v>
       </c>
     </row>
@@ -874,26 +1014,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008963</t>
+          <t>004209</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>建信科技创新混合C</t>
+          <t>大成智惠量化多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>92.33</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.94</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002984-森麒麟.xlsx
+++ b/数据整理/stocks/A股/深证主板/002984-森麒麟.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1049,4 +1050,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001270</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001271</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002984-森麒麟.xlsx
+++ b/数据整理/stocks/A股/深证主板/002984-森麒麟.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1182,4 +1183,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002984-森麒麟.xlsx
+++ b/数据整理/stocks/A股/深证主板/002984-森麒麟.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1191,7 +1192,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1202,17 +1203,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1222,14 +1243,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.02</v>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2143</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1238,14 +1281,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.71</v>
+          <t>000066</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1254,13 +1319,211 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>005128</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏永康添福混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>29.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005104</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富荣福康混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005105</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富荣福康混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>6</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.67</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002984-森麒麟.xlsx
+++ b/数据整理/stocks/A股/深证主板/002984-森麒麟.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1438,7 +1439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1449,17 +1450,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1469,14 +1490,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.27</v>
+          <t>011230</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0377</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1485,14 +1528,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.02</v>
+          <t>166025</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧远见两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>48.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>48.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0053</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1501,14 +1566,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.71</v>
+          <t>011229</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7357</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1517,13 +1604,303 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2065</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007101</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧远见两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>48.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000066</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005104</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富荣福康混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005105</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富荣福康混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.67</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002984-森麒麟.xlsx
+++ b/数据整理/stocks/A股/深证主板/002984-森麒麟.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1799,7 +1800,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1810,17 +1811,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1830,14 +1851,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.09</v>
+          <t>012069</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘安康颐享12个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>25.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2987</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1846,14 +1889,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.27</v>
+          <t>010043</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘安康颐和混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>22.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1486</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1862,14 +1927,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.02</v>
+          <t>002639</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1878,14 +1965,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.71</v>
+          <t>010044</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘安康颐和混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>22.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1894,13 +2003,243 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>004734</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧瑾灵灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>46.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012070</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘安康颐享12个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>25.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004735</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧瑾灵灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>46.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.67</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002984-森麒麟.xlsx
+++ b/数据整理/stocks/A股/深证主板/002984-森麒麟.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,281 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001396</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>建信互联网+产业升级股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.88</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2197</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.55</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008962</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>建信科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.77</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1819</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="D4" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001070</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>建信信息产业股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.13</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1661</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000308</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>建信创新中国混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.48</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0533</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+      <c r="D5" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002281</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>建信裕利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.13</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0368</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>008963</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>建信科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.77</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0075</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.67</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -761,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -791,32 +639,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001070</t>
+          <t>012069</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>建信信息产业股票</t>
+          <t>天弘安康颐享12个月持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>27.66</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.71</t>
+          <t>25.57</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.98</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2840</t>
+          <t>0.2987</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -829,32 +677,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008962</t>
+          <t>010043</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>建信科技创新混合A</t>
+          <t>天弘安康颐和混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>19.05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.33</t>
+          <t>22.49</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.94</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2323</t>
+          <t>0.1486</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -867,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000534</t>
+          <t>002639</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长盛高端装备制造灵活配置混合</t>
+          <t>天弘价值精选灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>88.43</t>
+          <t>20.33</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0916</t>
+          <t>0.0280</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -905,32 +753,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000308</t>
+          <t>010044</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>建信创新中国混合</t>
+          <t>天弘安康颐和混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>85.84</t>
+          <t>22.49</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0612</t>
+          <t>0.0229</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -943,36 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002281</t>
+          <t>004734</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>建信裕利灵活配置混合</t>
+          <t>中欧瑾灵灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.07</t>
+          <t>46.06</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>5.53</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0220</t>
+          <t>0.0188</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -981,32 +829,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>008963</t>
+          <t>012070</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>建信科技创新混合C</t>
+          <t>天弘安康颐享12个月持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.33</t>
+          <t>25.57</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.94</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0131</t>
+          <t>0.0173</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1019,36 +867,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004209</t>
+          <t>004735</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>大成智惠量化多策略灵活配置混合</t>
+          <t>中欧瑾灵灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.48</t>
+          <t>46.06</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>5.53</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0019</t>
+          <t>0.0122</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1062,7 +910,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1083,7 +931,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1113,36 +961,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001270</t>
+          <t>011230</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>英大灵活配置混合A</t>
+          <t>创金合信数字经济主题股票C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>17.18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.19</t>
+          <t>92.17</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>6.04</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0094</t>
+          <t>1.0377</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1151,35 +999,263 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001271</t>
+          <t>166025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>英大灵活配置混合B</t>
+          <t>中欧远见两年定期开放混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>48.80</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.19</t>
+          <t>48.74</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0064</t>
+          <t>1.0053</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011229</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7357</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2065</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007101</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧远见两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>48.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000066</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005104</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富荣福康混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005105</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富荣福康混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1440,7 +1516,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1461,7 +1537,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1491,36 +1567,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011230</t>
+          <t>001270</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>创金合信数字经济主题股票C</t>
+          <t>英大灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.18</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.17</t>
+          <t>93.19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.04</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0377</t>
+          <t>0.0094</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1529,263 +1605,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>166025</t>
+          <t>001271</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧远见两年定期开放混合A</t>
+          <t>英大灵活配置混合B</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>48.80</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>48.74</t>
+          <t>93.19</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.0053</t>
+          <t>0.0064</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>011229</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>创金合信数字经济主题股票A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>12.18</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.17</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.04</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.7357</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>206002</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>鹏华精选成长混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.68</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2065</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007101</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中欧远见两年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>48.74</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0591</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>000066</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>诺安鸿鑫混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>81.34</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0388</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005104</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>富荣福康混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>87.88</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005105</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>富荣福康混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>87.88</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1821,7 +1669,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1851,32 +1699,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012069</t>
+          <t>001070</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天弘安康颐享12个月持有期混合型证券投资基金A</t>
+          <t>建信信息产业股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>27.66</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>25.57</t>
+          <t>89.71</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>5.98</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2987</t>
+          <t>0.2840</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1889,32 +1737,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010043</t>
+          <t>008962</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天弘安康颐和混合A</t>
+          <t>建信科技创新混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>19.05</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>22.49</t>
+          <t>92.33</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>5.94</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1486</t>
+          <t>0.2323</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1927,36 +1775,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002639</t>
+          <t>000534</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天弘价值精选灵活配置混合</t>
+          <t>长盛高端装备制造灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>20.33</t>
+          <t>88.43</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0280</t>
+          <t>0.0916</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1965,32 +1813,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010044</t>
+          <t>000308</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天弘安康颐和混合C</t>
+          <t>建信创新中国混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>22.49</t>
+          <t>85.84</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0229</t>
+          <t>0.0612</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2003,36 +1851,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004734</t>
+          <t>002281</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧瑾灵灵活配置混合A</t>
+          <t>建信裕利灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>46.06</t>
+          <t>89.07</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0188</t>
+          <t>0.0220</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -2041,32 +1889,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>012070</t>
+          <t>008963</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天弘安康颐享12个月持有期混合型证券投资基金C</t>
+          <t>建信科技创新混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>25.57</t>
+          <t>92.33</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>5.94</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0173</t>
+          <t>0.0131</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -2079,36 +1927,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004735</t>
+          <t>004209</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中欧瑾灵灵活配置混合C</t>
+          <t>大成智惠量化多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>46.06</t>
+          <t>89.48</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0122</t>
+          <t>0.0019</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2122,128 +1970,280 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.55</v>
+          <t>001396</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信互联网+产业升级股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2197</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>008962</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1819</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信信息产业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1661</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
-      <c r="D3" t="n">
-        <v>3.09</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>5</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.02</v>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>7</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.71</v>
+          <t>002281</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信裕利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.67</v>
+          <t>008963</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002984-森麒麟.xlsx
+++ b/数据整理/stocks/A股/深证主板/002984-森麒麟.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>0.55</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>3.09</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.27</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.71</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.67</v>
       </c>
     </row>
@@ -583,6 +600,858 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9229</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013220</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7754</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>59.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3540</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013221</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3440</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011516</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实浦盈一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>30.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1958</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>163302</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大摩资源优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1829</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008518</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>弘毅远方经济新动力混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010857</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011517</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实浦盈一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006644</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>弘毅远方消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.54</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011886</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011887</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009155</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>海富通富盈混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014422</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>弘毅远方消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.54</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009154</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>海富通富盈混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005105</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富荣福康混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011361</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏博锐一年持有混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>33.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005104</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富荣福康混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010858</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015767</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>弘毅远方经济新动力混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011362</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏博锐一年持有混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>33.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -904,7 +1773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1264,7 +2133,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1510,7 +2379,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1642,7 +2511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1964,7 +2833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002984-森麒麟.xlsx
+++ b/数据整理/stocks/A股/深证主板/002984-森麒麟.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D2" t="n">
-        <v>2.87</v>
+        <v>17.23</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>0.55</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>3.09</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>0.27</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.71</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.67</v>
       </c>
     </row>
@@ -600,6 +617,1618 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6004</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001938</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>126.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4881</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005739</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国转型机遇混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>41.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0592</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1729</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>166025</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧远见两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>43.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>56.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1655</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0742</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014057</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国金安均衡精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0316</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>100056</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国低碳环保混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9535</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006527</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国优质发展混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9074</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004241</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>28.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5662</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011212</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5185</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001349</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国改革动力混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.49</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4895</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.63</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>60.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3903</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3331</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014347</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国趋势优先混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2505</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006528</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国优质发展混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2301</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011769</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>21.97</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>24.85</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2087</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>65.22</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1943</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014718</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国天旭均衡混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012828</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国浦诚回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>20.95</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014058</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国金安均衡精选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0887</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007101</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧远见两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>56.41</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011213</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014560</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方汽车产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014561</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东方汽车产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001484</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天弘新价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014348</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国趋势优先混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011770</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>24.85</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011886</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012829</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国浦诚回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>20.95</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004211</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>金鹰周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014719</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国天旭均衡混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011887</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>016130</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国泰君安品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005105</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富荣福康混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>016131</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国泰君安品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011361</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏博锐一年持有混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001978</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>泰信互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>77.79</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005104</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富荣福康混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>016246</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>天弘新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011362</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华夏博锐一年持有混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1451,7 +3080,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1773,7 +3402,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2133,7 +3762,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2379,7 +4008,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2511,7 +4140,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2833,7 +4462,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
